--- a/templates/Template_Silabus_NonAkademik.xlsx
+++ b/templates/Template_Silabus_NonAkademik.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,39 +436,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Petunjuk: Isi baris-baris silabus non-akademik. Kolom Waktu boleh kosong atau isi format yyyy-mm-dd hh:mm.</t>
+          <t>Petunjuk: Isi baris-baris silabus non-akademik. Kolom Waktu isi teks (misal: Harian/Pekanan/Bulanan) atau kosong.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Topik/Tema/Materi</t>
+          <t>Materi</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>Tahapan (target per jenjang)</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Penilaian</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Referensi</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>PIC</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Waktu</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Tempat</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sasaran</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Catatan (opsional)</t>
         </is>
       </c>
     </row>
@@ -480,25 +490,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>MTs/MA (sesuaikan jenjang)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Observasi + praktik</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Modul internal / kitab / pedoman</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Ust A</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-01-22 19:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pekanan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Aula Bahasa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kelas X</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
